--- a/Tester/Template_TestReport.xlsx
+++ b/Tester/Template_TestReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLPM_Agile\GitHub\NHOM-5-PT14351-MOB-Agile-MOB104\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2259EAD6-3DD8-4DAB-A3E9-540B2266917A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F028B39-3DDA-4311-836E-54E25B7210BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="803" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="803" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover (Tổng quan)" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{98B1C4B3-E3B3-4DE7-8A42-65BA52942D36}">
       <text>
         <r>
           <rPr>
@@ -292,7 +292,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{B7CE4EE7-4BE2-416B-A874-568DCD6E1257}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{BAAE9A67-855A-4B4E-A5BB-EE94CAE5F3AD}">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{E93ECB04-5552-47B1-906D-9177FAEE68DD}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="425">
   <si>
     <t>TRƯỜNG HỢP KIỂM THỬ</t>
   </si>
@@ -1508,71 +1508,25 @@
     <t>AM07</t>
   </si>
   <si>
-    <t>1. Giao diện gồm một form có: 2 TextInput là số điện 
-thoại, password phụ; 1 xác nhận, 1 nút hủy.</t>
-  </si>
-  <si>
     <t>AM07.1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Bước 1: Bấm vào nút chưa có tài khoản
-Bước 2: Nhập dữ liệu vào ô số điện thoạil
-Bước 3: Nhập dữ liệu vào ô mật khẩu
-Bước 4: Nhập dữ liệu vào ô xác nhận mật khẩu
-Bước 5: Nhập dữ liệu vào ô câu hỏi phụ
-Bước 6: Bấm vào nút hủy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"-Người dùng nhập số điện thoại và câu trả lời đã trả lời khi đăng ký ở câu hỏi phụ click nút xác nhận
-   + Nếu trùng với câu trả lời thì chuyển sang màn hình đổi mật khẩu .
-   + Nếu không trùng thì alert ""Không trùng khớp với câu trả  lời trước đó"
--click hủy: quay về màn hình đăng nhập </t>
-  </si>
-  <si>
     <t>AM07.2</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Bước 2: Bấm vào nút đã có tài khoản
-Bước 3: Nhập dữ liệu vào ô số điện thoại
-Bước 4: nhập dữ liệu vào ô PAssWord
-Bước 5: Bấm vào nút đăng nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   + Nếu trùng với câu trả lời thì chuyển sang màn hình đổi mật khẩu .</t>
-  </si>
-  <si>
     <t>AM07.3</t>
   </si>
   <si>
     <t>Check sđt chưa tồn tại</t>
   </si>
   <si>
-    <t>Bước 1: Bật app
-Bước 2: Bấm vào nút chưa có tài khoản?
-Bước 3: Bỏ trống các textinput rồi bấm vào nút đăng ký</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   + Nếu không trùng thì alert ""Không trùng khớp với câu trả  lời trước đó"</t>
-  </si>
-  <si>
     <t>AM07.4</t>
   </si>
   <si>
-    <t xml:space="preserve">-click hủy: quay về màn hình đăng nhập </t>
-  </si>
-  <si>
     <t>AM07.5</t>
   </si>
   <si>
-    <t>Sau khi ấn đặt lại sẽ hiển thị thông báo đổi thông tin thành công</t>
-  </si>
-  <si>
     <t>AM07.6</t>
-  </si>
-  <si>
-    <t>Sẽ báo lỗi mật khẩu phải từ 6-12 kí tự</t>
   </si>
   <si>
     <t>C013.1 - RQ13 Thêm nhân viên</t>
@@ -1710,15 +1664,6 @@
     <t>Check trùng tên</t>
   </si>
   <si>
-    <t>Bước 1: Bấm vào nút chưa có tài khoản
-Bước 2: Nhập dữ liệu vào ô số điện thoạil
-Bước 3: Nhập dữ liệu vào ô mật khẩu
-Bước 4: Nhập dữ liệu vào ô  password
-Bước 5: Nhập dữ liệu vào ô tên nhân viên
-Bước 6:  Nhập dữ liệu vào ô địa chỉ
-Bước 7: Bấm vào nút tạo</t>
-  </si>
-  <si>
     <t>Sẽ báo lỗi trùng tên và sửa lại thêm tên khác</t>
   </si>
   <si>
@@ -1726,18 +1671,6 @@
   </si>
   <si>
     <t>Check nút hủy tạo</t>
-  </si>
-  <si>
-    <t>Bước 1: Bấm vào nút chưa có tài khoản
-Bước 2: Nhập dữ liệu vào ô số điện thoạil
-Bước 3: Nhập dữ liệu vào ô mật khẩu
-Bước 4: Nhập dữ liệu vào ô  password
-Bước 5: Nhập dữ liệu vào ô tên nhân viên
-Bước 6:  Nhập dữ liệu vào ô địa chỉ
-Bước 7: Bấm vào hủy tạo</t>
-  </si>
-  <si>
-    <t>Hủy đi các bước vừa tạo nhân viên</t>
   </si>
   <si>
     <t>C013.3-RQ13 Xóa nhân viên</t>
@@ -1760,25 +1693,7 @@
     <t>XNV09.1</t>
   </si>
   <si>
-    <t>check nút hủy xóa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Bước 1: Nhấn vào nút xóa
-Bước 2:Xóa thành công</t>
-  </si>
-  <si>
-    <t>XNV09.2</t>
-  </si>
-  <si>
     <t>check nút xóa thành công</t>
-  </si>
-  <si>
-    <t>Bước 1:bấm vào thông tin nhân viên
-Bước 2: Bấm vào nút đã có tài khoản
-Bước 3: Nhập dữ liệu vào ô số điện thoại
-Bước 4: nhập dữ liệu vào ô PAssWord
-Bước 5: Bấm vào nút xóa</t>
   </si>
   <si>
     <t xml:space="preserve">   +  Xóa thành công nhân viên</t>
@@ -2051,6 +1966,91 @@
   </si>
   <si>
     <t>Thông báo tài khoản hoặc mật khẩu sai</t>
+  </si>
+  <si>
+    <t>13/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 1: Mở trang web
+</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Nhập dữ liệu vào ô sđt
+Bước 3: Nhập dữ liệu vào ô pass
+Bước 4: Ấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Thông báo đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Nhập dữ liệu vào ô pass
+Bước 3: Ấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Đăng nhập không thành công
+Bước 3: Ấn vào nút quên mật khẩu
+Bước 4: Nhập dữ liệu vào ô sđt</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Nhập sđt không đúng vào ô sđt
+Bước 2: Nhập dữ liệu vào ô pass
+Bước 3: Ấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Sẽ báo lỗi sđt sai</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Nhập dữ liệu vào ô sđt
+Bước 3: Ấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Nhập dữ liệu vào ô sđt
+Bước 2: Nhập mật khẩu sai vào ô pass
+Bước 3: Ấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Sẽ báo lỗi mật khẩu sai</t>
+  </si>
+  <si>
+    <t>C08.1 - RQ08 Đăng nhập admin</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Đăng nhập web thành công
+Bước 3: Từ màn hình chính của web ấn tab quản lý nhân viên
+Bước 4: Ấn vào trang thêm nhân viên
+Bước 5: Nhập dữ liệu vào ô tài khoản
+Bước 6: Nhập dữ liệu vào ô pass
+Bước 7: Nhập dữ liệu vào ô tên nhận viên
+Bước 8: Nhập sđt đã tồn tại vào ô sđt
+Bước 9: Nhập dữ liệu vào ô địa chỉ
+Bước 10: Ấn nút tạo mới</t>
+  </si>
+  <si>
+    <t>Bước 1: Mở trang web
+Bước 2: Đăng nhập web thành công
+Bước 3: Từ màn hình chính của web ấn tab quản lý nhân viên
+Bước 4: Ấn vào trang thêm nhân viên
+Bước 5: Nhập dữ liệu vào ô tài khoản
+Bước 6: Nhập dữ liệu vào ô pass
+Bước 7: Nhập trùng  tên nhận viên vào ô tên nhận viên
+Bước 8: Nhập dữ liệu vào ô sđt
+Bước 9: Nhập dữ liệu vào ô địa chỉ
+Bước 10: Ấn nút tạo mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 1: Mở trang web
+Bước 2: Đăng nhập web thành công
+Bước 3: Từ màn hình chính của web ấn tab quản lý nhân viên
+Bước 4: Ấn vào trang thêm nhân viên
+Bước 5: Bấm vào hủy tạo
+</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2382,24 +2382,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
@@ -3033,7 +3015,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
@@ -3285,21 +3267,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3315,47 +3288,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3449,16 +3394,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,10 +3497,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3588,42 +3533,72 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3634,6 +3609,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3662,6 +3655,27 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3692,92 +3706,20 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="15" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4377,44 +4319,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="168" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="169" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="168" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="168" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="168" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="168" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="168" customWidth="1"/>
-    <col min="8" max="16384" width="10.28515625" style="168"/>
+    <col min="1" max="1" width="2.5703125" style="155" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="156" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="155" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="155" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="155" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="155" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="155" customWidth="1"/>
+    <col min="8" max="16384" width="10.28515625" style="155"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="165" customFormat="1" ht="32.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="210" t="s">
+    <row r="2" spans="1:9" s="152" customFormat="1" ht="32.25">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="I2" s="165" t="s">
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="I2" s="152" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4426,11 +4368,11 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
@@ -4439,208 +4381,208 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="174" t="s">
+      <c r="G6" s="161" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="219"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="162" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="12"/>
-      <c r="C8" s="176"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="C8" s="163"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="155" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="166" customFormat="1">
-      <c r="B11" s="178" t="s">
+    <row r="11" spans="1:9" s="153" customFormat="1">
+      <c r="B11" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="179" t="s">
+      <c r="D11" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="179" t="s">
+      <c r="F11" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="180" t="s">
+      <c r="G11" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="165"/>
-    </row>
-    <row r="12" spans="1:9" s="167" customFormat="1">
-      <c r="B12" s="181">
+      <c r="H11" s="152"/>
+    </row>
+    <row r="12" spans="1:9" s="154" customFormat="1">
+      <c r="B12" s="168">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
-      </c>
-      <c r="C12" s="182" t="s">
+        <v>43998.606405439816</v>
+      </c>
+      <c r="C12" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="167" t="s">
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="154" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="167" customFormat="1">
-      <c r="B13" s="181" t="s">
+    <row r="13" spans="1:9" s="154" customFormat="1">
+      <c r="B13" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="182" t="s">
+      <c r="C13" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="194" t="s">
+      <c r="G13" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="167" t="s">
+      <c r="H13" s="154" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="167" customFormat="1">
-      <c r="B14" s="181"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183" t="s">
+    <row r="14" spans="1:9" s="154" customFormat="1">
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="183"/>
-      <c r="G14" s="185"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="172"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="155" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="168">
+      <c r="C17" s="155">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="D18" s="186" t="s">
+      <c r="D18" s="173" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="215" t="s">
+      <c r="C19" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="188" t="s">
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="175" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="189">
+      <c r="B20" s="176">
         <v>1</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="193" t="s">
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="180" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="189">
+      <c r="B21" s="176">
         <v>2</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="193" t="s">
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="180" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="189">
+      <c r="B22" s="176">
         <v>3</v>
       </c>
-      <c r="C22" s="190"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="193" t="s">
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="180" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="189">
+      <c r="B23" s="176">
         <v>4</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="193" t="s">
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="180" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="189">
+      <c r="B24" s="176">
         <v>5</v>
       </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="193"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="180"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="189">
+      <c r="B25" s="176">
         <v>6</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="193"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4664,8 +4606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
@@ -4709,14 +4651,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -4725,16 +4667,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -4746,22 +4688,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -4771,28 +4713,28 @@
     <row r="6" spans="1:15">
       <c r="A6" s="49">
         <f>COUNTIF(I10:I971,"Pass")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="50">
         <f>COUNTIF(I12:I971,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$12:I$971,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A12:A971)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -4842,17 +4784,17 @@
       <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
       <c r="F9" s="63"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="194"/>
+      <c r="I9" s="194" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="89"/>
@@ -4869,15 +4811,21 @@
       <c r="D10" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="201" t="s">
+      <c r="E10" s="103"/>
+      <c r="F10" s="188" t="s">
         <v>275</v>
       </c>
-      <c r="G10" s="71"/>
+      <c r="G10" s="188" t="s">
+        <v>275</v>
+      </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="112"/>
+      <c r="I10" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="201" t="s">
+        <v>410</v>
+      </c>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="89.25">
       <c r="A11" s="73" t="s">
@@ -4894,11 +4842,17 @@
       <c r="F11" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="76" t="s">
+        <v>279</v>
+      </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="112"/>
+      <c r="I11" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="201" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="63.75">
       <c r="A12" s="73" t="s">
@@ -4911,13 +4865,20 @@
       <c r="D12" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="115"/>
+      <c r="G12" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="201" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="51">
       <c r="A13" s="73" t="s">
@@ -4929,13 +4890,20 @@
       <c r="D13" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="113"/>
+      <c r="G13" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="201" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="89.25">
       <c r="A14" s="73" t="s">
@@ -4944,16 +4912,23 @@
       <c r="C14" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="113"/>
+      <c r="G14" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="201" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="89.25">
       <c r="A15" s="73" t="s">
@@ -4965,13 +4940,20 @@
       <c r="D15" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="198" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="185" t="s">
         <v>294</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="113"/>
+      <c r="G15" s="185" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="201" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="76.5">
       <c r="A16" s="73" t="s">
@@ -4983,13 +4965,20 @@
       <c r="D16" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="113"/>
+      <c r="G16" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="201" t="s">
+        <v>410</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5004,7 +4993,7 @@
     <mergeCell ref="G5:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16" xr:uid="{A8A3D751-D7CF-427E-ABA7-4621EF29D3AC}">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5062,14 +5051,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -5078,16 +5067,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -5099,22 +5088,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -5124,28 +5113,28 @@
     <row r="6" spans="1:15">
       <c r="A6" s="49">
         <f>COUNTIF(I10:I971,"Pass")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="50">
         <f>COUNTIF(I12:I971,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$12:I$971,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A12:A971)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -5195,17 +5184,17 @@
       <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
       <c r="F9" s="63"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="194"/>
+      <c r="I9" s="194" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="89"/>
@@ -5219,130 +5208,177 @@
       <c r="C10" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="186" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="102"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="77.099999999999994" customHeight="1">
+      <c r="A11" s="73" t="s">
         <v>299</v>
-      </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="203" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="112"/>
-    </row>
-    <row r="11" spans="1:15" s="36" customFormat="1" ht="89.25">
-      <c r="A11" s="73" t="s">
-        <v>300</v>
       </c>
       <c r="B11" s="73"/>
       <c r="C11" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="103" t="s">
-        <v>301</v>
+      <c r="D11" s="186" t="s">
+        <v>412</v>
       </c>
       <c r="E11" s="75"/>
-      <c r="F11" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="71"/>
+      <c r="F11" s="185" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="185" t="s">
+        <v>413</v>
+      </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="112"/>
-    </row>
-    <row r="12" spans="1:15" s="37" customFormat="1" ht="63.75">
+      <c r="I11" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="102"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="77.099999999999994" customHeight="1">
       <c r="A12" s="73" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="104" t="s">
-        <v>305</v>
-      </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="115"/>
-    </row>
-    <row r="13" spans="1:15" s="36" customFormat="1" ht="51">
+      <c r="D12" s="186" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="36" customFormat="1" ht="90.95" customHeight="1">
       <c r="A13" s="73" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="204" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="113"/>
-    </row>
-    <row r="14" spans="1:15" s="36" customFormat="1" ht="89.25">
+        <v>302</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="36" customFormat="1" ht="84.95" customHeight="1">
       <c r="A14" s="73" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C14" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="204" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="104" t="s">
-        <v>311</v>
-      </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="113"/>
-    </row>
-    <row r="15" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="D14" s="186" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="84" customHeight="1">
       <c r="A15" s="73" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="204" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="205" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="113"/>
-    </row>
-    <row r="16" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="D15" s="186" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="100"/>
+      <c r="F15" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="93" customHeight="1">
       <c r="A16" s="73" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C16" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="204" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="205" t="s">
-        <v>315</v>
-      </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="113"/>
+      <c r="D16" s="186" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="100"/>
+      <c r="F16" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5357,7 +5393,7 @@
     <mergeCell ref="G5:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I16" xr:uid="{F43D7300-FD31-4D31-A776-C2042E0055B4}">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5370,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
@@ -5398,7 +5434,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -5415,14 +5451,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -5431,16 +5467,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -5452,22 +5488,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -5477,28 +5513,28 @@
     <row r="6" spans="1:15">
       <c r="A6" s="49">
         <f>COUNTIF(I10:I972,"Pass")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="50">
         <f>COUNTIF(I12:I972,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
-        <v>8</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$12:I$972,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A12:A972)</f>
         <v>8</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -5548,199 +5584,283 @@
       <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
       <c r="F9" s="63"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="194"/>
+      <c r="I9" s="194" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:15" s="94" customFormat="1" ht="89.25">
+    <row r="10" spans="1:15" s="92" customFormat="1" ht="89.25">
       <c r="A10" s="65" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="206" t="s">
-        <v>318</v>
+      <c r="D10" s="190" t="s">
+        <v>308</v>
       </c>
       <c r="E10" s="69"/>
-      <c r="F10" s="201" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="71"/>
+      <c r="F10" s="188" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="188" t="s">
+        <v>309</v>
+      </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-    </row>
-    <row r="11" spans="1:15" s="94" customFormat="1" ht="140.25">
+      <c r="I10" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="1:15" s="92" customFormat="1" ht="140.25">
       <c r="A11" s="65" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B11" s="73"/>
       <c r="C11" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="206" t="s">
-        <v>322</v>
+        <v>311</v>
+      </c>
+      <c r="D11" s="190" t="s">
+        <v>312</v>
       </c>
       <c r="E11" s="75"/>
       <c r="F11" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="71"/>
+        <v>313</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>313</v>
+      </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-    </row>
-    <row r="12" spans="1:15" s="96" customFormat="1" ht="127.5">
+      <c r="I11" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="1:15" s="93" customFormat="1" ht="127.5">
       <c r="A12" s="65" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="206" t="s">
-        <v>326</v>
+        <v>315</v>
+      </c>
+      <c r="D12" s="190" t="s">
+        <v>316</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" s="76"/>
+        <v>317</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>317</v>
+      </c>
       <c r="H12" s="80"/>
-      <c r="I12" s="95"/>
-    </row>
-    <row r="13" spans="1:15" s="94" customFormat="1" ht="127.5">
+      <c r="I12" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="92" customFormat="1" ht="127.5">
       <c r="A13" s="65" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="206" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="198" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="190" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="91"/>
-    </row>
-    <row r="14" spans="1:15" s="94" customFormat="1" ht="127.5">
+      <c r="G13" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="96"/>
+      <c r="I13" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="92" customFormat="1" ht="127.5">
       <c r="A14" s="65" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="206" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="198" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="190" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:15" s="94" customFormat="1" ht="127.5">
+      <c r="G14" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="96"/>
+      <c r="I14" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="92" customFormat="1" ht="127.5">
       <c r="A15" s="65" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="206" t="s">
-        <v>335</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="198" t="s">
+      <c r="D15" s="190" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="1:15" s="94" customFormat="1" ht="127.5">
+      <c r="G15" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="I15" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="92" customFormat="1" ht="127.5">
       <c r="A16" s="65" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="206" t="s">
-        <v>338</v>
-      </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="198" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="190" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="1:9" s="94" customFormat="1" ht="127.5">
+      <c r="G16" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="I16" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="92" customFormat="1" ht="140.25">
       <c r="A17" s="65" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="207" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="198" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="1:9" s="94" customFormat="1" ht="93.95" customHeight="1">
+      <c r="D17" s="190" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="185" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="185" t="s">
+        <v>330</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="I17" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="92" customFormat="1" ht="171.95" customHeight="1">
       <c r="A18" s="65" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="F18" s="208" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="94" customFormat="1" ht="96" customHeight="1">
+        <v>332</v>
+      </c>
+      <c r="D18" s="190" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" s="191" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" s="191" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>421</v>
+      </c>
+      <c r="I18" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="92" customFormat="1" ht="111" customHeight="1">
       <c r="A19" s="65" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>348</v>
+        <v>335</v>
+      </c>
+      <c r="D19" s="190" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>421</v>
+      </c>
+      <c r="I19" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5756,7 +5876,7 @@
     <mergeCell ref="G5:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I17" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I19" xr:uid="{8A2392D8-218D-45AD-9B63-A3C9C5708DA1}">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5767,10 +5887,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
@@ -5797,7 +5917,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -5814,14 +5934,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -5830,16 +5950,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -5851,22 +5971,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -5875,29 +5995,29 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="49">
-        <f>COUNTIF(I10:I967,"Pass")</f>
+        <f>COUNTIF(I10:I966,"Pass")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="50">
+        <f>COUNTIF(I12:I966,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="50">
-        <f>COUNTIF(I12:I967,"Fail")</f>
+      <c r="C6" s="234">
+        <f>G6-E6-B6-A6</f>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
+        <f>COUNTIF(I$12:I$966,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
-        <f>G6-E6-B6-A6</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
-        <f>COUNTIF(I$12:I$967,"N/A")</f>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
+        <f>COUNTA(A12:A966)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
-        <f>COUNTA(A12:A967)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -5947,17 +6067,17 @@
       <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="193"/>
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
       <c r="F9" s="63"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="194"/>
+      <c r="I9" s="194" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="89"/>
@@ -5965,78 +6085,65 @@
     </row>
     <row r="10" spans="1:15" s="36" customFormat="1" ht="76.5">
       <c r="A10" s="65" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="206" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="201" t="s">
-        <v>352</v>
-      </c>
-      <c r="G10" s="71"/>
+      <c r="D10" s="190" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="255"/>
+      <c r="F10" s="188" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="188" t="s">
+        <v>339</v>
+      </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-    </row>
-    <row r="11" spans="1:15" s="36" customFormat="1" ht="89.25">
+      <c r="I10" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="76.5">
       <c r="A11" s="65" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B11" s="73"/>
       <c r="C11" s="73" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="E11" s="75"/>
+        <v>341</v>
+      </c>
+      <c r="D11" s="190" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="79"/>
       <c r="F11" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="71"/>
+        <v>342</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>342</v>
+      </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-    </row>
-    <row r="12" spans="1:15" s="37" customFormat="1" ht="63.75">
-      <c r="A12" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="76" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
+      <c r="I11" s="200" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6051,7 +6158,7 @@
     <mergeCell ref="G5:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I12" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8 I10:I11" xr:uid="{7FE83DAC-86BD-4D7B-8B7D-23938D84536C}">
       <formula1>$O$2:$O$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6094,15 +6201,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
-      <c r="B1" s="248" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
+      <c r="B1" s="254" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2"/>
@@ -6118,31 +6225,31 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="222" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="222"/>
-      <c r="E3" s="249" t="s">
+      <c r="C3" s="225" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="225"/>
+      <c r="E3" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="249"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="222" t="s">
-        <v>363</v>
-      </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="225" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="225"/>
+      <c r="E4" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="249"/>
+      <c r="F4" s="251"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9"/>
     </row>
@@ -6150,15 +6257,15 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="222" t="str">
+      <c r="C5" s="225" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>KH_HUE_T07_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="249" t="s">
+      <c r="D5" s="225"/>
+      <c r="E5" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="249"/>
+      <c r="F5" s="251"/>
       <c r="G5" s="7"/>
       <c r="H5" s="11">
         <v>42666</v>
@@ -6167,16 +6274,16 @@
     <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" s="250" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
+        <v>347</v>
+      </c>
+      <c r="C6" s="252" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2"/>
@@ -6198,17 +6305,17 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="209" t="s">
-        <v>366</v>
+      <c r="C9" s="192" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>92</v>
@@ -6223,7 +6330,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6256,7 +6363,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6289,7 +6396,7 @@
         <v>#REF!</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6322,7 +6429,7 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6355,7 +6462,7 @@
         <v>#REF!</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6388,7 +6495,7 @@
         <v>#REF!</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6421,7 +6528,7 @@
         <v>#REF!</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6454,7 +6561,7 @@
         <v>#REF!</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6515,7 +6622,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D20" s="27" t="e">
         <f>SUM(D9:D19)</f>
@@ -6548,27 +6655,27 @@
     </row>
     <row r="22" spans="1:9">
       <c r="C22" s="32" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E22" s="33" t="e">
         <f>(D20+E20)*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:9">
       <c r="C23" s="32" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="E23" s="33" t="e">
         <f>D20*100/(H20-G20)</f>
         <v>#REF!</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H23" s="34"/>
     </row>
@@ -6598,164 +6705,164 @@
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="143" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="144" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="144" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="144" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" style="144" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="130" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="131" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="131" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="131" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="131" customWidth="1"/>
     <col min="7" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="25.5">
-      <c r="B1" s="145"/>
-      <c r="D1" s="146" t="s">
+      <c r="B1" s="132"/>
+      <c r="D1" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="147"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="145"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="132"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222" t="str">
+      <c r="C3" s="224"/>
+      <c r="D3" s="225" t="str">
         <f>[1]Cover!C4</f>
         <v>HỆ THỐNG SERVICE DIRECTORY</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222" t="str">
+      <c r="C4" s="224"/>
+      <c r="D4" s="225" t="str">
         <f>[1]Cover!C5</f>
         <v>SD_SOF303</v>
       </c>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-    </row>
-    <row r="5" spans="2:6" s="140" customFormat="1">
-      <c r="B5" s="223" t="s">
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+    </row>
+    <row r="5" spans="2:6" s="127" customFormat="1">
+      <c r="B5" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="224" t="s">
+      <c r="C5" s="226"/>
+      <c r="D5" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="149"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" s="141" customFormat="1">
-      <c r="B7" s="150"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-    </row>
-    <row r="8" spans="2:6" s="142" customFormat="1">
-      <c r="B8" s="152" t="s">
+    <row r="7" spans="2:6" s="128" customFormat="1">
+      <c r="B7" s="137"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+    </row>
+    <row r="8" spans="2:6" s="129" customFormat="1">
+      <c r="B8" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="142" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15">
-      <c r="B9" s="156">
+      <c r="B9" s="143">
         <v>1</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="195" t="s">
+      <c r="D9" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
     </row>
     <row r="10" spans="2:6" ht="15">
-      <c r="B10" s="156">
+      <c r="B10" s="143">
         <v>2</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160" t="s">
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15">
-      <c r="B11" s="156">
+      <c r="B11" s="143">
         <v>3</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="147"/>
     </row>
     <row r="12" spans="2:6" ht="15">
-      <c r="B12" s="156">
+      <c r="B12" s="143">
         <v>4</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
     </row>
     <row r="13" spans="2:6" ht="15">
-      <c r="B13" s="156">
+      <c r="B13" s="143">
         <v>5</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="160"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="147"/>
     </row>
     <row r="14" spans="2:6" ht="15">
-      <c r="B14" s="156">
+      <c r="B14" s="143">
         <v>6</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="160"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="147"/>
     </row>
     <row r="15" spans="2:6" ht="15">
-      <c r="B15" s="156">
+      <c r="B15" s="143">
         <v>7</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="196" t="s">
+      <c r="C15" s="149"/>
+      <c r="D15" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="164"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6785,210 +6892,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" style="127" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="127" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="127" customWidth="1"/>
-    <col min="4" max="16384" width="10.28515625" style="127"/>
+    <col min="1" max="1" width="21" style="114" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="114" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="114" customWidth="1"/>
+    <col min="4" max="16384" width="10.28515625" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="125" customFormat="1" ht="25.5">
-      <c r="A1" s="128"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130" t="s">
+    <row r="1" spans="1:6" s="112" customFormat="1" ht="25.5">
+      <c r="A1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="117" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="125" customFormat="1" ht="12.75">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="131"/>
-    </row>
-    <row r="3" spans="1:6" s="125" customFormat="1" ht="12.75">
-      <c r="A3" s="132" t="s">
+    <row r="2" spans="1:6" s="112" customFormat="1" ht="12.75">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+    </row>
+    <row r="3" spans="1:6" s="112" customFormat="1" ht="12.75">
+      <c r="A3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120" t="str">
         <f>[1]Cover!C4</f>
         <v>HỆ THỐNG SERVICE DIRECTORY</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="125" customFormat="1" ht="12.75">
-      <c r="A4" s="132" t="s">
+    <row r="4" spans="1:6" s="112" customFormat="1" ht="12.75">
+      <c r="A4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133" t="str">
+      <c r="B4" s="119"/>
+      <c r="C4" s="120" t="str">
         <f>[1]Cover!C5</f>
         <v>SD_SOF303</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="126" customFormat="1" ht="12.75">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
+    <row r="5" spans="1:6" s="113" customFormat="1" ht="12.75">
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="123" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="138" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="114" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="138" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="225" t="s">
+      <c r="A13" s="228" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="229" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="229" t="s">
+      <c r="C13" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="126" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="225"/>
-      <c r="B14" s="227"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="139" t="s">
+      <c r="A14" s="228"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="126" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="225"/>
-      <c r="B15" s="227"/>
-      <c r="C15" s="138" t="s">
+      <c r="A15" s="228"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="126" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="225"/>
-      <c r="B16" s="227"/>
-      <c r="C16" s="138" t="s">
+      <c r="A16" s="228"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="126" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="225"/>
-      <c r="B17" s="227"/>
-      <c r="C17" s="138" t="s">
+      <c r="A17" s="228"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="126" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="225"/>
-      <c r="B18" s="228"/>
-      <c r="C18" s="127" t="s">
+      <c r="A18" s="228"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="126" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="225"/>
-      <c r="B19" s="137" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="138"/>
+      <c r="C19" s="125"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="225"/>
-      <c r="B20" s="137" t="s">
+      <c r="A20" s="228"/>
+      <c r="B20" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="138"/>
+      <c r="C20" s="125"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="225"/>
-      <c r="B21" s="137" t="s">
+      <c r="A21" s="228"/>
+      <c r="B21" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C21" s="125"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="225"/>
-      <c r="B22" s="137" t="s">
+      <c r="A22" s="228"/>
+      <c r="B22" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="138"/>
+      <c r="C22" s="125"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="225"/>
-      <c r="B23" s="137" t="s">
+      <c r="A23" s="228"/>
+      <c r="B23" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="125"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="225"/>
-      <c r="B24" s="137" t="s">
+      <c r="A24" s="228"/>
+      <c r="B24" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="138"/>
+      <c r="C24" s="125"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="225"/>
-      <c r="B25" s="137" t="s">
+      <c r="A25" s="228"/>
+      <c r="B25" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="138" t="s">
+      <c r="C25" s="125" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7014,7 +7121,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="111" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7052,13 +7159,13 @@
     <col min="1" max="1" width="20.28515625" style="38" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="38" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="123" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="110" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="38" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" style="39" customWidth="1"/>
     <col min="7" max="7" width="47.7109375" style="39" customWidth="1"/>
     <col min="8" max="8" width="29" style="38" customWidth="1"/>
     <col min="9" max="9" width="19" style="38" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="252" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="195" customWidth="1"/>
     <col min="11" max="12" width="15.85546875" style="38" customWidth="1"/>
     <col min="13" max="16384" width="10.28515625" style="38"/>
   </cols>
@@ -7071,8 +7178,8 @@
       <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="253" t="s">
-        <v>381</v>
+      <c r="B2" s="196" t="s">
+        <v>364</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -7089,14 +7196,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -7105,16 +7212,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -7126,22 +7233,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -7157,28 +7264,28 @@
         <f>COUNTIF(I12:I977,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$12:I$977,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A10:A977)</f>
         <v>16</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="53"/>
-      <c r="D7" s="254"/>
+      <c r="D7" s="197"/>
       <c r="E7" s="55"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -7223,11 +7330,11 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="255"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
       <c r="G9" s="63"/>
@@ -7235,35 +7342,35 @@
       <c r="I9" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="256"/>
+      <c r="J9" s="199"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:15" s="36" customFormat="1" ht="120.75" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="197" t="s">
-        <v>382</v>
+      <c r="D10" s="184" t="s">
+        <v>365</v>
       </c>
       <c r="E10" s="75"/>
       <c r="F10" s="70" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="257" t="s">
+      <c r="I10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K10" s="112"/>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="108" customHeight="1">
       <c r="A11" s="73" t="s">
@@ -7272,24 +7379,24 @@
       <c r="C11" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="184" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="75"/>
-      <c r="F11" s="198" t="s">
-        <v>385</v>
+      <c r="F11" s="185" t="s">
+        <v>368</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="257" t="s">
+      <c r="I11" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K11" s="112"/>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="121.5" customHeight="1">
       <c r="A12" s="78" t="s">
@@ -7298,22 +7405,22 @@
       <c r="C12" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="96" t="s">
+      <c r="E12" s="98"/>
+      <c r="F12" s="93" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="257" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="258" t="s">
-        <v>384</v>
+      <c r="J12" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="95.25" customHeight="1">
@@ -7323,22 +7430,22 @@
       <c r="C13" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="197" t="s">
+      <c r="D13" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="200" t="s">
+      <c r="E13" s="100"/>
+      <c r="F13" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="98" t="s">
-        <v>388</v>
-      </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="257" t="s">
+      <c r="G13" s="95" t="s">
+        <v>371</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="258" t="s">
-        <v>384</v>
+      <c r="J13" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="96.75" customHeight="1">
@@ -7348,22 +7455,22 @@
       <c r="C14" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="197" t="s">
+      <c r="D14" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="200" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="98" t="s">
-        <v>389</v>
-      </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="257" t="s">
+      <c r="G14" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="258" t="s">
-        <v>384</v>
+      <c r="J14" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="96" customHeight="1">
@@ -7373,21 +7480,21 @@
       <c r="C15" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="197" t="s">
+      <c r="D15" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="200" t="s">
+      <c r="F15" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="98" t="s">
-        <v>390</v>
-      </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="257" t="s">
+      <c r="G15" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="258" t="s">
-        <v>384</v>
+      <c r="J15" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="96" customHeight="1">
@@ -7397,21 +7504,21 @@
       <c r="C16" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="197" t="s">
+      <c r="D16" s="184" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="121"/>
-      <c r="F16" s="200" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="98" t="s">
-        <v>391</v>
-      </c>
-      <c r="I16" s="257" t="s">
+      <c r="G16" s="95" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="258" t="s">
-        <v>384</v>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="36" customFormat="1" ht="96.75" customHeight="1">
@@ -7421,24 +7528,24 @@
       <c r="C17" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="197" t="s">
+      <c r="D17" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="200" t="s">
+      <c r="E17" s="108"/>
+      <c r="F17" s="187" t="s">
         <v>125</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="257" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" s="109"/>
+      <c r="I17" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K17" s="112"/>
+      <c r="J17" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="102"/>
     </row>
     <row r="18" spans="1:11" s="36" customFormat="1" ht="45" customHeight="1">
       <c r="A18" s="78" t="s">
@@ -7447,24 +7554,24 @@
       <c r="C18" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="197" t="s">
-        <v>393</v>
-      </c>
-      <c r="E18" s="121"/>
+      <c r="D18" s="184" t="s">
+        <v>376</v>
+      </c>
+      <c r="E18" s="108"/>
       <c r="F18" s="71" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>395</v>
-      </c>
-      <c r="H18" s="122"/>
-      <c r="I18" s="257" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="I18" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K18" s="112"/>
+      <c r="J18" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" s="102"/>
     </row>
     <row r="19" spans="1:11" s="36" customFormat="1" ht="124.5" customHeight="1">
       <c r="A19" s="73" t="s">
@@ -7473,24 +7580,24 @@
       <c r="C19" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="197" t="s">
+      <c r="D19" s="184" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="121"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="71" t="s">
         <v>147</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>396</v>
-      </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="257" t="s">
+        <v>379</v>
+      </c>
+      <c r="H19" s="109"/>
+      <c r="I19" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K19" s="112"/>
+      <c r="J19" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K19" s="102"/>
     </row>
     <row r="20" spans="1:11" s="36" customFormat="1" ht="124.5" customHeight="1">
       <c r="A20" s="78" t="s">
@@ -7499,24 +7606,24 @@
       <c r="C20" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="197" t="s">
+      <c r="D20" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="121"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="71" t="s">
         <v>151</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="H20" s="122"/>
-      <c r="I20" s="257" t="s">
+        <v>380</v>
+      </c>
+      <c r="H20" s="109"/>
+      <c r="I20" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K20" s="112"/>
+      <c r="J20" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="102"/>
     </row>
     <row r="21" spans="1:11" s="36" customFormat="1" ht="123" customHeight="1">
       <c r="A21" s="73" t="s">
@@ -7525,24 +7632,24 @@
       <c r="C21" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="197" t="s">
+      <c r="D21" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="121"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="71" t="s">
         <v>155</v>
       </c>
       <c r="G21" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="257" t="s">
+        <v>381</v>
+      </c>
+      <c r="H21" s="109"/>
+      <c r="I21" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K21" s="112"/>
+      <c r="J21" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="1:11" s="36" customFormat="1" ht="114.75">
       <c r="A22" s="78" t="s">
@@ -7551,24 +7658,24 @@
       <c r="C22" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="71" t="s">
         <v>155</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="257" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="109"/>
+      <c r="I22" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K22" s="112"/>
+      <c r="J22" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K22" s="102"/>
     </row>
     <row r="23" spans="1:11" s="36" customFormat="1" ht="123" customHeight="1">
       <c r="A23" s="73" t="s">
@@ -7577,24 +7684,24 @@
       <c r="C23" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="197" t="s">
+      <c r="D23" s="184" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="71" t="s">
         <v>162</v>
       </c>
       <c r="G23" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="H23" s="122"/>
-      <c r="I23" s="257" t="s">
+        <v>382</v>
+      </c>
+      <c r="H23" s="109"/>
+      <c r="I23" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K23" s="112"/>
+      <c r="J23" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23" s="102"/>
     </row>
     <row r="24" spans="1:11" s="36" customFormat="1" ht="121.5" customHeight="1">
       <c r="A24" s="78" t="s">
@@ -7603,24 +7710,24 @@
       <c r="C24" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="197" t="s">
+      <c r="D24" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="71" t="s">
         <v>166</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="H24" s="109"/>
+      <c r="I24" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K24" s="112"/>
+      <c r="J24" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11" s="36" customFormat="1" ht="124.5" customHeight="1">
       <c r="A25" s="73" t="s">
@@ -7629,27 +7736,27 @@
       <c r="C25" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="197" t="s">
+      <c r="D25" s="184" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="71" t="s">
         <v>166</v>
       </c>
       <c r="G25" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="H25" s="122"/>
-      <c r="I25" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" s="109"/>
+      <c r="I25" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K25" s="112"/>
+      <c r="J25" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" s="102"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="C26" s="123"/>
+      <c r="C26" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7723,14 +7830,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -7739,16 +7846,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -7760,22 +7867,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -7791,19 +7898,19 @@
         <f>COUNTIF(I15:I966,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$15:I$966,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A10:A966)</f>
         <v>11</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -7854,10 +7961,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
+      <c r="C9" s="240"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
@@ -7877,24 +7984,24 @@
       <c r="C10" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="199" t="s">
-        <v>401</v>
+      <c r="D10" s="186" t="s">
+        <v>384</v>
       </c>
       <c r="E10" s="75"/>
-      <c r="F10" s="201" t="s">
-        <v>402</v>
-      </c>
-      <c r="G10" s="201" t="s">
-        <v>402</v>
+      <c r="F10" s="188" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="188" t="s">
+        <v>385</v>
       </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="257" t="s">
+      <c r="I10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K10" s="112"/>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="129" customHeight="1">
       <c r="A11" s="73" t="s">
@@ -7904,24 +8011,24 @@
       <c r="C11" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="199" t="s">
-        <v>403</v>
+      <c r="D11" s="186" t="s">
+        <v>386</v>
       </c>
       <c r="E11" s="75"/>
-      <c r="F11" s="201" t="s">
+      <c r="F11" s="188" t="s">
         <v>174</v>
       </c>
       <c r="G11" s="71" t="s">
         <v>174</v>
       </c>
       <c r="H11" s="72"/>
-      <c r="I11" s="257" t="s">
+      <c r="I11" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K11" s="112"/>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="114" customHeight="1">
       <c r="A12" s="73" t="s">
@@ -7931,24 +8038,24 @@
       <c r="C12" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="199" t="s">
-        <v>404</v>
+      <c r="D12" s="186" t="s">
+        <v>387</v>
       </c>
       <c r="E12" s="75"/>
-      <c r="F12" s="201" t="s">
+      <c r="F12" s="188" t="s">
         <v>125</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H12" s="72"/>
-      <c r="I12" s="257" t="s">
+      <c r="I12" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K12" s="112"/>
+      <c r="J12" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="123.75" customHeight="1">
       <c r="A13" s="73" t="s">
@@ -7958,24 +8065,24 @@
       <c r="C13" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="186" t="s">
         <v>179</v>
       </c>
       <c r="E13" s="75"/>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="185" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="257" t="s">
+      <c r="I13" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K13" s="112"/>
+      <c r="J13" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="98.25" customHeight="1">
       <c r="A14" s="73" t="s">
@@ -7985,24 +8092,24 @@
       <c r="C14" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="198" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="259" t="s">
-        <v>407</v>
+      <c r="G14" s="202" t="s">
+        <v>390</v>
       </c>
       <c r="H14" s="77"/>
-      <c r="I14" s="257" t="s">
+      <c r="I14" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K14" s="112"/>
+      <c r="J14" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="96.75" customHeight="1">
       <c r="A15" s="73" t="s">
@@ -8011,22 +8118,22 @@
       <c r="C15" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="199" t="s">
+      <c r="D15" s="186" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="200" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="100" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="257" t="s">
+      <c r="G15" s="97" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="258" t="s">
-        <v>384</v>
+      <c r="J15" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="123.75" customHeight="1">
@@ -8036,22 +8143,22 @@
       <c r="C16" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="199" t="s">
+      <c r="D16" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="200" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="200" t="s">
+      <c r="G16" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="257" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="258" t="s">
-        <v>384</v>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="118.5" customHeight="1">
@@ -8061,22 +8168,22 @@
       <c r="C17" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="199" t="s">
+      <c r="D17" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="200" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="200" t="s">
+      <c r="G17" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="257" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="258" t="s">
-        <v>384</v>
+      <c r="J17" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="102">
@@ -8086,22 +8193,22 @@
       <c r="C18" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="199" t="s">
+      <c r="D18" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="200" t="s">
+      <c r="E18" s="100"/>
+      <c r="F18" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="200" t="s">
+      <c r="G18" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="257" t="s">
+      <c r="H18" s="101"/>
+      <c r="I18" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="258" t="s">
-        <v>384</v>
+      <c r="J18" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1" ht="102">
@@ -8111,22 +8218,22 @@
       <c r="C19" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="199" t="s">
+      <c r="D19" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="200" t="s">
+      <c r="E19" s="100"/>
+      <c r="F19" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="200" t="s">
+      <c r="G19" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="257" t="s">
+      <c r="H19" s="101"/>
+      <c r="I19" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="258" t="s">
-        <v>384</v>
+      <c r="J19" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1" ht="109.5" customHeight="1">
@@ -8136,22 +8243,22 @@
       <c r="C20" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="200" t="s">
+      <c r="E20" s="100"/>
+      <c r="F20" s="187" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="200" t="s">
+      <c r="G20" s="187" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="257" t="s">
+      <c r="H20" s="101"/>
+      <c r="I20" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="258" t="s">
-        <v>384</v>
+      <c r="J20" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8225,14 +8332,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -8241,16 +8348,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -8262,22 +8369,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -8293,22 +8400,22 @@
         <f>COUNTIF(I12:I970,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$12:I$970,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A10:A970)</f>
         <v>7</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -8359,10 +8466,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
+      <c r="C9" s="240"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
@@ -8374,7 +8481,7 @@
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:15" s="117" customFormat="1" ht="76.5">
+    <row r="10" spans="1:15" s="104" customFormat="1" ht="76.5">
       <c r="A10" s="73" t="s">
         <v>198</v>
       </c>
@@ -8382,26 +8489,26 @@
       <c r="C10" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="199" t="s">
+      <c r="D10" s="186" t="s">
         <v>199</v>
       </c>
       <c r="E10" s="75"/>
-      <c r="F10" s="202" t="s">
+      <c r="F10" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="201" t="s">
-        <v>409</v>
+      <c r="G10" s="188" t="s">
+        <v>392</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I10" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K10" s="112"/>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="73" t="s">
@@ -8411,161 +8518,161 @@
       <c r="C11" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="186" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="75"/>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="185" t="s">
         <v>204</v>
       </c>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="185" t="s">
         <v>204</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I11" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I11" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K11" s="112"/>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="38.25">
       <c r="A12" s="73" t="s">
         <v>205</v>
       </c>
       <c r="B12" s="78"/>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="186" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="198" t="s">
+      <c r="E12" s="98"/>
+      <c r="F12" s="185" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="198" t="s">
+      <c r="G12" s="185" t="s">
         <v>208</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I12" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="258" t="s">
-        <v>384</v>
+      <c r="J12" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="38.25">
       <c r="A13" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="186" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="198" t="s">
+      <c r="E13" s="100"/>
+      <c r="F13" s="185" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="185" t="s">
         <v>212</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I13" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="258" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="117" customFormat="1" ht="38.25">
+      <c r="J13" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="104" customFormat="1" ht="38.25">
       <c r="A14" s="73" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="186" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="198" t="s">
+      <c r="E14" s="101"/>
+      <c r="F14" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="185" t="s">
         <v>216</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I14" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I14" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="258" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="117" customFormat="1" ht="38.25">
+      <c r="J14" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="104" customFormat="1" ht="38.25">
       <c r="A15" s="73" t="s">
         <v>217</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="199" t="s">
+      <c r="D15" s="186" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="200" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="187" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="200" t="s">
+      <c r="G15" s="187" t="s">
         <v>220</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I15" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I15" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="258" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="117" customFormat="1" ht="38.25">
+      <c r="J15" s="201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="104" customFormat="1" ht="38.25">
       <c r="A16" s="73" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="199" t="s">
+      <c r="D16" s="186" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="200" t="s">
+      <c r="E16" s="101"/>
+      <c r="F16" s="187" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="200" t="s">
+      <c r="G16" s="187" t="s">
         <v>224</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I16" s="257" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="258" t="s">
-        <v>384</v>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8595,7 +8702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -8640,14 +8747,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -8656,16 +8763,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -8677,22 +8784,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -8708,22 +8815,22 @@
         <f>COUNTIF(I13:I947,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$13:I$947,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A10:A947)</f>
         <v>8</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -8774,10 +8881,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
+      <c r="C9" s="240"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
@@ -8790,236 +8897,236 @@
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:15" s="71" customFormat="1" ht="89.25">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="105" t="s">
         <v>226</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="199" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="260"/>
-      <c r="F10" s="201" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="261" t="s">
-        <v>413</v>
+      <c r="D10" s="186" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="203"/>
+      <c r="F10" s="188" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="204" t="s">
+        <v>396</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I10" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K10" s="262"/>
-    </row>
-    <row r="11" spans="1:15" s="94" customFormat="1" ht="166.5" customHeight="1">
-      <c r="A11" s="118" t="s">
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="205"/>
+    </row>
+    <row r="11" spans="1:15" s="92" customFormat="1" ht="166.5" customHeight="1">
+      <c r="A11" s="105" t="s">
         <v>227</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="199" t="s">
-        <v>415</v>
-      </c>
-      <c r="E11" s="260"/>
-      <c r="F11" s="263" t="s">
+      <c r="D11" s="186" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="203"/>
+      <c r="F11" s="206" t="s">
         <v>229</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I11" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I11" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K11" s="262"/>
-    </row>
-    <row r="12" spans="1:15" s="94" customFormat="1" ht="159" customHeight="1">
-      <c r="A12" s="118" t="s">
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="205"/>
+    </row>
+    <row r="12" spans="1:15" s="92" customFormat="1" ht="159" customHeight="1">
+      <c r="A12" s="105" t="s">
         <v>230</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="66" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="199" t="s">
-        <v>418</v>
-      </c>
-      <c r="E12" s="260"/>
-      <c r="F12" s="263" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="186" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="203"/>
+      <c r="F12" s="206" t="s">
         <v>125</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I12" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K12" s="262"/>
-    </row>
-    <row r="13" spans="1:15" s="96" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A13" s="118" t="s">
+      <c r="J12" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="205"/>
+    </row>
+    <row r="13" spans="1:15" s="93" customFormat="1" ht="135.75" customHeight="1">
+      <c r="A13" s="105" t="s">
         <v>233</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="264"/>
-      <c r="F13" s="263" t="s">
+      <c r="E13" s="207"/>
+      <c r="F13" s="206" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I13" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K13" s="265"/>
-    </row>
-    <row r="14" spans="1:15" s="94" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A14" s="118" t="s">
+      <c r="J13" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="208"/>
+    </row>
+    <row r="14" spans="1:15" s="92" customFormat="1" ht="135.75" customHeight="1">
+      <c r="A14" s="105" t="s">
         <v>236</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="267"/>
-      <c r="F14" s="263" t="s">
+      <c r="E14" s="210"/>
+      <c r="F14" s="206" t="s">
         <v>125</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I14" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K14" s="266"/>
+      <c r="J14" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" s="209"/>
     </row>
     <row r="15" spans="1:15" s="71" customFormat="1" ht="127.5">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="105" t="s">
         <v>237</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="199" t="s">
+      <c r="D15" s="186" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="269"/>
-      <c r="F15" s="263" t="s">
+      <c r="E15" s="212"/>
+      <c r="F15" s="206" t="s">
         <v>125</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I15" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K15" s="268"/>
+      <c r="J15" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K15" s="211"/>
     </row>
     <row r="16" spans="1:15" s="71" customFormat="1" ht="143.25" customHeight="1">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="105" t="s">
         <v>239</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="199" t="s">
+      <c r="D16" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="269"/>
-      <c r="F16" s="263" t="s">
+      <c r="E16" s="212"/>
+      <c r="F16" s="206" t="s">
         <v>125</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I16" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K16" s="268"/>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K16" s="211"/>
     </row>
     <row r="17" spans="1:11" s="71" customFormat="1" ht="99" customHeight="1">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="105" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="199" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" s="268"/>
+      <c r="D17" s="186" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="211"/>
       <c r="F17" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="100" t="s">
-        <v>421</v>
+      <c r="G17" s="97" t="s">
+        <v>404</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="I17" s="257" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K17" s="268"/>
+      <c r="J17" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9075,7 +9182,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -9092,14 +9199,14 @@
       <c r="A3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="243"/>
       <c r="O3" s="83" t="s">
         <v>94</v>
       </c>
@@ -9108,16 +9215,16 @@
       <c r="A4" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="233"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
       <c r="O4" s="84" t="s">
         <v>97</v>
       </c>
@@ -9129,22 +9236,22 @@
       <c r="B5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="244" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="235"/>
-      <c r="E5" s="236" t="s">
+      <c r="D5" s="245"/>
+      <c r="E5" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="239"/>
-      <c r="I5" s="240"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="250"/>
       <c r="K5" s="85">
         <f ca="1">NOW()</f>
-        <v>43995.398614699072</v>
+        <v>43998.606405439816</v>
       </c>
       <c r="L5" s="86"/>
       <c r="O5" s="38" t="s">
@@ -9160,22 +9267,22 @@
         <f>COUNTIF(I12:I972,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="234">
         <f>G6-E6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="241">
+      <c r="D6" s="235"/>
+      <c r="E6" s="234">
         <f>COUNTIF(I$12:I$972,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="243">
+      <c r="F6" s="235"/>
+      <c r="G6" s="236">
         <f>COUNTA(A10:A972)</f>
         <v>8</v>
       </c>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="238"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="51"/>
@@ -9226,10 +9333,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="61"/>
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="247"/>
+      <c r="C9" s="240"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
@@ -9249,24 +9356,24 @@
       <c r="C10" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="199" t="s">
+      <c r="D10" s="186" t="s">
         <v>247</v>
       </c>
       <c r="E10" s="74"/>
-      <c r="F10" s="201" t="s">
+      <c r="F10" s="188" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="201" t="s">
+      <c r="G10" s="188" t="s">
         <v>248</v>
       </c>
       <c r="H10" s="72"/>
-      <c r="I10" s="257" t="s">
+      <c r="I10" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K10" s="112"/>
+      <c r="J10" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="87.95" customHeight="1">
       <c r="A11" s="73" t="s">
@@ -9276,24 +9383,24 @@
       <c r="C11" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="186" t="s">
         <v>251</v>
       </c>
       <c r="E11" s="75"/>
-      <c r="F11" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="G11" s="198" t="s">
-        <v>423</v>
+      <c r="F11" s="185" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="185" t="s">
+        <v>406</v>
       </c>
       <c r="H11" s="77"/>
-      <c r="I11" s="257" t="s">
+      <c r="I11" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="258" t="s">
-        <v>384</v>
-      </c>
-      <c r="K11" s="112"/>
+      <c r="J11" s="201" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="117" customHeight="1">
       <c r="A12" s="73" t="s">
@@ -9303,22 +9410,22 @@
       <c r="C12" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="186" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="76" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>424</v>
-      </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="257" t="s">
+        <v>407</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="258" t="s">
-        <v>384</v>
+      <c r="J12" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="37" customFormat="1" ht="90.95" customHeight="1">
@@ -9329,22 +9436,22 @@
       <c r="C13" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="186" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="76" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="257" t="s">
+        <v>408</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="258" t="s">
-        <v>384</v>
+      <c r="J13" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="69.95" customHeight="1">
@@ -9354,22 +9461,22 @@
       <c r="C14" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="199" t="s">
+      <c r="D14" s="186" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="100" t="s">
-        <v>426</v>
-      </c>
-      <c r="G14" s="100" t="s">
-        <v>426</v>
-      </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="257" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="258" t="s">
-        <v>384</v>
+      <c r="J14" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="98.1" customHeight="1">
@@ -9379,22 +9486,22 @@
       <c r="C15" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="D15" s="199" t="s">
+      <c r="D15" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="100" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="100" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" s="110"/>
-      <c r="I15" s="257" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="258" t="s">
-        <v>384</v>
+      <c r="J15" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -9407,19 +9514,19 @@
       <c r="D16" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="76" t="s">
         <v>267</v>
       </c>
       <c r="G16" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="257" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="258" t="s">
-        <v>384</v>
+      <c r="J16" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="36" customFormat="1" ht="93" customHeight="1">
@@ -9432,19 +9539,19 @@
       <c r="D17" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="76" t="s">
         <v>271</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="257" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="258" t="s">
-        <v>384</v>
+      <c r="J17" s="201" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
